--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97C7693-0025-43DC-887F-EAFC2F64EEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBF88F0-71A9-4B73-A2B2-F9E88AFB0DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,36 +30,6 @@
     <author>Jimmy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A917E4BC-1422-43DB-B10F-CA8C03BAE129}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Jimmy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-命名规则：
-abcde——5位
-a_1
-b_0=材料，1=消耗，2=道具
-cde_编号，从001开始</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{33A57CFD-2561-4B2B-BA03-05A139C58A38}">
       <text>
         <r>
@@ -172,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,106 +220,286 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>装备部位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipmentParts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>获得BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>木头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就木头啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就树叶啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>废铁</t>
+  </si>
+  <si>
+    <t>烛芯</t>
+  </si>
+  <si>
+    <t>木炭</t>
+  </si>
+  <si>
+    <t>耐火砖</t>
+  </si>
+  <si>
+    <t>铁锭</t>
+  </si>
+  <si>
+    <t>电子零件</t>
+  </si>
+  <si>
+    <t>万能核心</t>
+  </si>
+  <si>
+    <t>木板</t>
+  </si>
+  <si>
+    <t>齿轮</t>
+  </si>
+  <si>
+    <t>水泥</t>
+  </si>
+  <si>
+    <t>瓶子</t>
+  </si>
+  <si>
+    <t>一瓶水</t>
+  </si>
+  <si>
+    <t>一瓶油</t>
+  </si>
+  <si>
+    <t>布料</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>斧头</t>
+  </si>
+  <si>
+    <t>锤子</t>
+  </si>
+  <si>
+    <t>小刀</t>
+  </si>
+  <si>
+    <t>鹤嘴锄</t>
+  </si>
+  <si>
+    <t>剪钳</t>
+  </si>
+  <si>
+    <t>睡衣</t>
+  </si>
+  <si>
+    <t>辐射服</t>
+  </si>
+  <si>
+    <t>布鞋</t>
+  </si>
+  <si>
+    <t>妈妈的项坠</t>
+  </si>
+  <si>
+    <t>简易手里剑</t>
+  </si>
+  <si>
+    <t>备用燃烧瓶</t>
+  </si>
+  <si>
+    <t>压缩干粮</t>
   </si>
   <si>
     <t>野菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就野菜啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可口可乐，不是百事可乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹤嘴锄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就鹤嘴锄啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡觉时失去的饱食度降低30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备部位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipmentParts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妈妈的吊坠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起床时精神恢复5点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆叠数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stacking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>获得BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>removeBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
+  </si>
+  <si>
+    <t>浆果</t>
+  </si>
+  <si>
+    <t>碎肉</t>
+  </si>
+  <si>
+    <t>烤野菜</t>
+  </si>
+  <si>
+    <t>烤浆果</t>
+  </si>
+  <si>
+    <t>烤肉</t>
+  </si>
+  <si>
+    <t>就石头</t>
+  </si>
+  <si>
+    <t>就木头</t>
+  </si>
+  <si>
+    <t>就草</t>
+  </si>
+  <si>
+    <t>就木炭</t>
+  </si>
+  <si>
+    <t>就铁锭</t>
+  </si>
+  <si>
+    <t>就木板，板正</t>
+  </si>
+  <si>
+    <t>就齿轮</t>
+  </si>
+  <si>
+    <t>桶装水泥</t>
+  </si>
+  <si>
+    <t>塑料瓶玻璃瓶都行</t>
+  </si>
+  <si>
+    <t>装满水的瓶子</t>
+  </si>
+  <si>
+    <t>装满油的瓶子</t>
+  </si>
+  <si>
+    <t>残破的布料</t>
+  </si>
+  <si>
+    <t>冰块</t>
+  </si>
+  <si>
+    <t>小盐堆</t>
+  </si>
+  <si>
+    <t>在木头末端绑着石头</t>
+  </si>
+  <si>
+    <t>就小刀</t>
+  </si>
+  <si>
+    <t>一端很尖的锄头</t>
+  </si>
+  <si>
+    <t>就剪钳</t>
+  </si>
+  <si>
+    <t>就睡衣</t>
+  </si>
+  <si>
+    <t>就手里剑</t>
+  </si>
+  <si>
+    <t>就燃烧瓶</t>
+  </si>
+  <si>
+    <t>拆开的压缩饼干</t>
+  </si>
+  <si>
+    <t>就野菜</t>
+  </si>
+  <si>
+    <t>就浆果</t>
+  </si>
+  <si>
+    <t>野菜被烤了</t>
+  </si>
+  <si>
+    <t>浆果被烤了</t>
+  </si>
+  <si>
+    <t>肉被烤了</t>
+  </si>
+  <si>
+    <t>能看出来是肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有麻麻照片的项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就辐射服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很电子很科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很耐火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用草手搓成的烛芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈铁片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,19 +840,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.19921875" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" customWidth="1"/>
+    <col min="5" max="6" width="10.53125" customWidth="1"/>
     <col min="7" max="7" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
@@ -726,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -744,16 +896,16 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -770,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -788,21 +940,21 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -817,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -835,10 +987,10 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
         <v>3</v>
@@ -849,10 +1001,10 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -884,8 +1036,9 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
+      <c r="N4" t="str">
+        <f>"Icon\Item\"&amp;A4</f>
+        <v>Icon\Item\10001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -893,10 +1046,10 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -928,37 +1081,38 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N40" si="0">"Icon\Item\"&amp;A5</f>
+        <v>Icon\Item\10002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>11001</v>
+        <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -970,27 +1124,28 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>50002</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10003</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>11002</v>
+        <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1002,42 +1157,43 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>50003</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>50001</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10004</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>12001</v>
+        <v>10005</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1052,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1060,25 +1216,26 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>0</v>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10005</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>12002</v>
+        <v>10006</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1096,60 +1253,1412 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>50004</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>0</v>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10006</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>12003</v>
+        <v>10007</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>10011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>10012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>10013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>10014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>10015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>10016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>10017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>10018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>10019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>10020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>10021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>10022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>10023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>10024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>10025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>10026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>10027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>10028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>50005</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>10029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>10030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10030</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>10031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>10032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="str">
+        <f>"Icon\Item\"&amp;A35</f>
+        <v>Icon\Item\10032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>10033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>10034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>10035</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>10036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>10037</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>6.5</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>60</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10037</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBF88F0-71A9-4B73-A2B2-F9E88AFB0DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2357F5-10FC-492B-A2A0-3E370DCB032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="4237" windowWidth="25777" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -846,7 +846,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2357F5-10FC-492B-A2A0-3E370DCB032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE590AC-0205-4360-979C-1D54A31B2183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="4237" windowWidth="25777" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="1612" windowWidth="20108" windowHeight="13711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,106 @@
   </si>
   <si>
     <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸黄瓜罐头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐肉罐头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡豆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤蘑菇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炖糊糊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烂肉汤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菇妈鱼丝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汕草果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛跳墙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲮鱼罐头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉丸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三明治</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰望星空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>野味大拼盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时还没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信徒的钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点火线圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神的名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,13 +637,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -558,8 +671,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -840,13 +957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -864,7 +981,7 @@
     <col min="14" max="14" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="40.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,27 +1132,6 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4" t="str">
         <f>"Icon\Item\"&amp;A4</f>
         <v>Icon\Item\10001</v>
@@ -1060,29 +1156,8 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N40" si="0">"Icon\Item\"&amp;A5</f>
+        <f t="shared" ref="N5:N64" si="0">"Icon\Item\"&amp;A5</f>
         <v>Icon\Item\10002</v>
       </c>
     </row>
@@ -1105,27 +1180,6 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10003</v>
@@ -1150,27 +1204,6 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10004</v>
@@ -1195,27 +1228,6 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10005</v>
@@ -1240,27 +1252,6 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10006</v>
@@ -1285,27 +1276,6 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10007</v>
@@ -1330,27 +1300,6 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10008</v>
@@ -1375,27 +1324,6 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10009</v>
@@ -1420,27 +1348,6 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10010</v>
@@ -1465,27 +1372,6 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10011</v>
@@ -1510,27 +1396,6 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10012</v>
@@ -1555,27 +1420,6 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10013</v>
@@ -1600,27 +1444,6 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10014</v>
@@ -1645,27 +1468,6 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10015</v>
@@ -1690,27 +1492,6 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10016</v>
@@ -1735,27 +1516,6 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10017</v>
@@ -1780,27 +1540,6 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10018</v>
@@ -1825,27 +1564,6 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10019</v>
@@ -1870,26 +1588,8 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
@@ -1915,26 +1615,8 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="0"/>
@@ -1960,26 +1642,8 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="0"/>
@@ -2005,26 +1669,8 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
         <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
@@ -2050,26 +1696,8 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
         <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
@@ -2095,26 +1723,8 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
         <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="0"/>
@@ -2140,26 +1750,8 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="0"/>
@@ -2185,26 +1777,8 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
@@ -2230,26 +1804,8 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
         <v>3</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
@@ -2275,26 +1831,8 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
         <v>3</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="0"/>
@@ -2320,26 +1858,8 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
         <v>3</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="0"/>
@@ -2380,12 +1900,6 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10031</v>
@@ -2405,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2423,12 +1937,6 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
         <v>0</v>
       </c>
       <c r="N35" t="str">
@@ -2450,16 +1958,16 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2468,12 +1976,6 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
       <c r="N36" t="str">
@@ -2495,13 +1997,13 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H37">
         <v>30</v>
@@ -2510,15 +2012,9 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
         <v>0</v>
       </c>
       <c r="N37" t="str">
@@ -2557,15 +2053,6 @@
       <c r="J38">
         <v>5</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10035</v>
@@ -2602,15 +2089,6 @@
       <c r="J39">
         <v>5</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10036</v>
@@ -2647,18 +2125,801 @@
       <c r="J40">
         <v>5</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
       <c r="N40" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\10037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>10038</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10038</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>10039</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10039</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>10040</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10040</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>10041</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>10042</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10042</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>10043</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10043</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>10044</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10044</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>10045</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>10046</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10046</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>10047</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>10048</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>10049</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10049</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>10050</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10050</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>10051</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>10052</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10052</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>10053</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10053</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>10054</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10054</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>10055</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10055</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>10056</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10056</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>11001</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>11002</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>11003</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>11004</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>11005</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11005</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE590AC-0205-4360-979C-1D54A31B2183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A341D425-4843-4B33-A4F9-61E1B242A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="1612" windowWidth="20108" windowHeight="13711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12720" yWindow="4150" windowWidth="11800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$64</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -142,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,9 +355,6 @@
   </si>
   <si>
     <t>简易手里剑</t>
-  </si>
-  <si>
-    <t>备用燃烧瓶</t>
   </si>
   <si>
     <t>压缩干粮</t>
@@ -600,6 +600,39 @@
   </si>
   <si>
     <t>神的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜塔莎的信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的母亲：
+在这破败的城市，我深深悔恨自己的轻率，不该因安德烈的承诺而与您疏远。我的血肉早已腐烂，但我的内心却愈发澄静。在这绝望时刻，我才终于意识到爱的意义。母亲，您是我灵魂的归宿，我在黑暗中默念着您的名字，泪水流淌。
+若有来世，我愿依然是您最亲近的女儿，伴您走过每一个春秋。请原谅我的愚蠢与倔强。
+永远爱您的，娜塔莎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧侣的信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化油器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面写着「神的名字」，以及一些你看不懂的符号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌生的人啊，该怎样向你诉说我们的痛苦。
+我们曾相信，知晓神的真正名字将带来真正的救赎。然而，当九十亿个神之名跃然纸上时，却没有发生任何事情。我们因此绝望，相约一同自裁。我承诺为他们火葬，但在他们死后，我却不忍让烈火吞噬他们的尸体。我逃至此地，任由时间吞噬。请你用我留下的燃烧瓶超度他们，我包里的罐头便当作答谢。
+愿你找到真正的星。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,12 +704,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -957,13 +992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1086,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1114,14 +1149,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1138,14 +1173,14 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1157,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N64" si="0">"Icon\Item\"&amp;A5</f>
+        <f t="shared" ref="N5:N67" si="0">"Icon\Item\"&amp;A5</f>
         <v>Icon\Item\10002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>10003</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1186,20 +1221,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>10004</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1217,7 +1252,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1241,7 +1276,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1265,7 +1300,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1289,7 +1324,7 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1306,14 +1341,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10009</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1330,14 +1365,14 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>10010</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1361,7 +1396,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1385,7 +1420,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1409,7 +1444,7 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1426,14 +1461,14 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>10014</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1457,7 +1492,7 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1481,7 +1516,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1498,14 +1533,14 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>10017</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1522,14 +1557,14 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>10018</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1546,20 +1581,20 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>10019</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1577,7 +1612,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1604,7 +1639,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1631,7 +1666,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1658,7 +1693,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1685,7 +1720,7 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1712,7 +1747,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1739,7 +1774,7 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1766,7 +1801,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1793,7 +1828,7 @@
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1820,7 +1855,7 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1844,76 +1879,73 @@
         <v>10030</v>
       </c>
       <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10030</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>10031</v>
+      </c>
+      <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>88</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="0"/>
-        <v>Icon\Item\10030</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>10031</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>10032</v>
+      </c>
+      <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>89</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="0"/>
-        <v>Icon\Item\10031</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>10032</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1945,14 +1977,14 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>10033</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1984,14 +2016,14 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>10034</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2023,14 +2055,14 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>10035</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2059,14 +2091,14 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39">
+      <c r="A39" s="3">
         <v>10036</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2099,10 +2131,10 @@
         <v>10037</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2131,14 +2163,14 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>10038</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2167,14 +2199,14 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>10039</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2203,158 +2235,158 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>10040</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10040</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>10041</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="0"/>
-        <v>Icon\Item\10040</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>10041</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>10042</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10042</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>10043</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\10043</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>10044</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="0"/>
-        <v>Icon\Item\10041</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>10042</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="0"/>
-        <v>Icon\Item\10042</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>10043</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="0"/>
-        <v>Icon\Item\10043</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>10044</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2387,10 +2419,10 @@
         <v>10045</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2423,10 +2455,10 @@
         <v>10046</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2459,10 +2491,10 @@
         <v>10047</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2495,10 +2527,10 @@
         <v>10048</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2531,10 +2563,10 @@
         <v>10049</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2567,10 +2599,10 @@
         <v>10050</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
         <v>124</v>
-      </c>
-      <c r="C53" t="s">
-        <v>125</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2603,10 +2635,10 @@
         <v>10051</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2639,10 +2671,10 @@
         <v>10052</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2675,10 +2707,10 @@
         <v>10053</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2711,16 +2743,16 @@
         <v>10054</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -2747,10 +2779,10 @@
         <v>10055</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2783,16 +2815,16 @@
         <v>10056</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F59">
         <v>5</v>
@@ -2819,10 +2851,10 @@
         <v>11001</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2840,10 +2872,10 @@
         <v>11002</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2861,10 +2893,10 @@
         <v>11003</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2885,10 +2917,10 @@
         <v>11004</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2906,10 +2938,10 @@
         <v>11005</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2922,7 +2954,71 @@
         <v>Icon\Item\11005</v>
       </c>
     </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>11006</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>11007</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>11008</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11008</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A341D425-4843-4B33-A4F9-61E1B242A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8ADBD2-89FA-4DEF-9C4B-60410C1ECE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12720" yWindow="4150" windowWidth="11800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1140" windowWidth="18938" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,9 +351,6 @@
     <t>布鞋</t>
   </si>
   <si>
-    <t>妈妈的项坠</t>
-  </si>
-  <si>
     <t>简易手里剑</t>
   </si>
   <si>
@@ -460,10 +457,6 @@
   </si>
   <si>
     <t>能看出来是肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有麻麻照片的项链</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -633,6 +626,37 @@
     <t>陌生的人啊，该怎样向你诉说我们的痛苦。
 我们曾相信，知晓神的真正名字将带来真正的救赎。然而，当九十亿个神之名跃然纸上时，却没有发生任何事情。我们因此绝望，相约一同自裁。我承诺为他们火葬，但在他们死后，我却不忍让烈火吞噬他们的尸体。我逃至此地，任由时间吞噬。请你用我留下的燃烧瓶超度他们，我包里的罐头便当作答谢。
 愿你找到真正的星。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊戒，驭众戒；
+至尊戒，寻众戒；
+魔界至尊引众戒；
+禁锢众戒黑啊中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈！选错了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的项坠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项坠中有一张照片，照片里一个红头发绿眼睛的女人抱着一个小孩。小孩长得有点像你。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,13 +1016,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomRight" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1121,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1156,7 +1180,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1180,7 +1204,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1192,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N67" si="0">"Icon\Item\"&amp;A5</f>
+        <f t="shared" ref="N5:N70" si="0">"Icon\Item\"&amp;A5</f>
         <v>Icon\Item\10002</v>
       </c>
     </row>
@@ -1204,7 +1228,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1228,7 +1252,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1252,7 +1276,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1276,7 +1300,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1300,7 +1324,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1324,7 +1348,7 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1348,7 +1372,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1372,7 +1396,7 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1396,7 +1420,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1420,7 +1444,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1444,7 +1468,7 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1468,7 +1492,7 @@
         <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1492,7 +1516,7 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1516,7 +1540,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1540,7 +1564,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1564,7 +1588,7 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1588,7 +1612,7 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1612,10 +1636,10 @@
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1624,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
@@ -1639,10 +1663,10 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1651,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="0"/>
@@ -1666,10 +1690,10 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1678,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="0"/>
@@ -1693,10 +1717,10 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1705,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
@@ -1720,10 +1744,10 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1732,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
@@ -1747,7 +1771,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1774,7 +1798,7 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1801,7 +1825,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1825,10 +1849,10 @@
         <v>10028</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1841,6 +1865,9 @@
       </c>
       <c r="K31">
         <v>3</v>
+      </c>
+      <c r="L31">
+        <v>50005</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
@@ -1852,10 +1879,10 @@
         <v>10029</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1879,10 +1906,10 @@
         <v>10030</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1903,10 +1930,10 @@
         <v>10031</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1942,10 +1969,10 @@
         <v>10032</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1981,10 +2008,10 @@
         <v>10033</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2020,10 +2047,10 @@
         <v>10034</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2059,10 +2086,10 @@
         <v>10035</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2095,10 +2122,10 @@
         <v>10036</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2131,10 +2158,10 @@
         <v>10037</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2167,10 +2194,10 @@
         <v>10038</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2203,10 +2230,10 @@
         <v>10039</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2239,10 +2266,10 @@
         <v>10040</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2275,10 +2302,10 @@
         <v>10041</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2311,10 +2338,10 @@
         <v>10042</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2347,10 +2374,10 @@
         <v>10043</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2383,10 +2410,10 @@
         <v>10044</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2419,10 +2446,10 @@
         <v>10045</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2455,10 +2482,10 @@
         <v>10046</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2491,10 +2518,10 @@
         <v>10047</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2527,10 +2554,10 @@
         <v>10048</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2563,10 +2590,10 @@
         <v>10049</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2599,10 +2626,10 @@
         <v>10050</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2635,10 +2662,10 @@
         <v>10051</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2671,10 +2698,10 @@
         <v>10052</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2707,10 +2734,10 @@
         <v>10053</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2743,10 +2770,10 @@
         <v>10054</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2779,10 +2806,10 @@
         <v>10055</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
         <v>122</v>
-      </c>
-      <c r="C58" t="s">
-        <v>124</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2815,10 +2842,10 @@
         <v>10056</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2851,10 +2878,10 @@
         <v>11001</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2872,10 +2899,10 @@
         <v>11002</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2893,19 +2920,16 @@
         <v>11003</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>1</v>
-      </c>
-      <c r="K62">
-        <v>3</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="0"/>
@@ -2917,10 +2941,10 @@
         <v>11004</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2938,10 +2962,10 @@
         <v>11005</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2959,10 +2983,10 @@
         <v>11006</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2980,10 +3004,10 @@
         <v>11007</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3001,10 +3025,10 @@
         <v>11008</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3015,6 +3039,75 @@
       <c r="N67" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\11008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>11009</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>11010</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>50012</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>11011</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="0"/>
+        <v>Icon\Item\11011</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8ADBD2-89FA-4DEF-9C4B-60410C1ECE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E72E5D-08CF-4F9D-A3D6-427B1E56DFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1140" windowWidth="18938" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3218" yWindow="900" windowWidth="18937" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$70</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="163">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,120 +375,19 @@
     <t>烤肉</t>
   </si>
   <si>
-    <t>就石头</t>
-  </si>
-  <si>
-    <t>就木头</t>
-  </si>
-  <si>
-    <t>就草</t>
-  </si>
-  <si>
-    <t>就木炭</t>
-  </si>
-  <si>
-    <t>就铁锭</t>
-  </si>
-  <si>
-    <t>就木板，板正</t>
-  </si>
-  <si>
-    <t>就齿轮</t>
-  </si>
-  <si>
-    <t>桶装水泥</t>
-  </si>
-  <si>
-    <t>塑料瓶玻璃瓶都行</t>
-  </si>
-  <si>
     <t>装满水的瓶子</t>
   </si>
   <si>
     <t>装满油的瓶子</t>
   </si>
   <si>
-    <t>残破的布料</t>
-  </si>
-  <si>
-    <t>冰块</t>
-  </si>
-  <si>
-    <t>小盐堆</t>
-  </si>
-  <si>
-    <t>在木头末端绑着石头</t>
-  </si>
-  <si>
-    <t>就小刀</t>
-  </si>
-  <si>
     <t>一端很尖的锄头</t>
   </si>
   <si>
-    <t>就剪钳</t>
-  </si>
-  <si>
-    <t>就睡衣</t>
-  </si>
-  <si>
     <t>就手里剑</t>
   </si>
   <si>
-    <t>就燃烧瓶</t>
-  </si>
-  <si>
-    <t>拆开的压缩饼干</t>
-  </si>
-  <si>
-    <t>就野菜</t>
-  </si>
-  <si>
-    <t>就浆果</t>
-  </si>
-  <si>
-    <t>野菜被烤了</t>
-  </si>
-  <si>
-    <t>浆果被烤了</t>
-  </si>
-  <si>
-    <t>肉被烤了</t>
-  </si>
-  <si>
-    <t>能看出来是肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就辐射服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小斧头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很电子很科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电路板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很耐火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用草手搓成的烛芯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生锈铁片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,10 +469,6 @@
   <si>
     <t>野味大拼盘</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时还没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>信徒的钥匙</t>
@@ -657,6 +552,277 @@
   </si>
   <si>
     <t>项坠中有一张照片，照片里一个红头发绿眼睛的女人抱着一个小孩。小孩长得有点像你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+100
+军用压缩饼干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+10
+活力-20
+精神-10
+吃起来还不错，就是吃完头晕晕的……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+15
+野生的菜，就是野菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+10
+活力+3
+看起来很多汁的浆果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+15
+活力+5
+生命-5
+精神-5
+零星的碎肉，多少算蛋白质吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+20
+生命值+3
+明明只是加热了为什么吃完变饱了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+10
+活力+8
+浆果火上淬，暖心又暖胃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+20
+活力+10
+精神+5
+肉就是得烤着吃！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+15
+活力+10
+生命-5
+精神-5
+活鱼无限耐久？它不死吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+25
+Mr.pickled~Good Boy~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+20
+活力+10
+就非常朴实无华的好吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+35
+活力+15
+说真的世界末日给我豆豉鲮鱼罐头我能吃到死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+40
+家里屯一根，好吃又防身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+15
+精神+10
+我勒个煮熟的见手青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+50
+精神+50
+能把这个吃下去还有什么难关过不了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力+30
+世界末日的早晨也要来一杯冰美式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这东西会变质吗？我也不知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+20
+活力+10
+生命值+5
+工序简单，味道鲜美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+60
+活力+20
+看起来像屎，闻起来像屎，摸起来像屎，那他就是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+75
+活力+30
+精神+10
+好歹一锅肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+40
+活力+30
+精神+20
+祝贺gumayusi选手熬过轮换，斩杀司马师！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+30
+活力+30
+生命+30
+精神+30
+把东西摆一起然后说是英氏料理就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+30
+活力+10
+精神+5
+我也没吃过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+100
+活力+50
+生命+50
+精神+50
+超级无敌海景佛跳墙！唐牛才是食神！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+50
+活力+30
+就肉丸啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度+80
+活力+40
+也是一种subway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一把钥匙，看起来能打开某样东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值不如一把核子可乐的瓶盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来像车上拆下来的零件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发癫发狂，癫火之王！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很木的木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很石的石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈而残缺的铁片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头烧成的木炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是耐火的砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用废铁熔铸而成的铁锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别问电是从哪来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凑近耳朵能听到一句：加入光荣的进化吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头做成的木板，很好理解吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾莉能用齿轮做出任何东西，你怎么不行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别问，问就是水+泥=水泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特能装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实目前没什么用因为没做完嘻嘻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以做冰箱，问就是学饥荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级调味料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来砍树的小斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别做，暂时没屁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常备一把小刀有惊喜哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利到能剪开世间万物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉也得有仪式感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论上来说是防辐射用的，但是没做辐射系统，嘻嘻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏破铁鞋无觅处，一看鞋子用的布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,6 +878,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -736,6 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1019,16 +1192,16 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K59" sqref="K59"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.86328125" customWidth="1"/>
     <col min="5" max="6" width="10.53125" customWidth="1"/>
     <col min="7" max="7" width="11.53125" bestFit="1" customWidth="1"/>
@@ -1047,7 +1220,7 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
@@ -1091,7 +1264,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -1135,7 +1308,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -1145,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1179,13 +1352,13 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>66</v>
+      <c r="C4" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
       <c r="F4">
@@ -1203,13 +1376,13 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>67</v>
+      <c r="C5" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="F5">
@@ -1227,13 +1400,13 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
+      <c r="C6" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>5</v>
       </c>
       <c r="F6">
@@ -1251,14 +1424,14 @@
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>101</v>
+      <c r="C7" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="E7" s="5">
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1275,14 +1448,14 @@
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>100</v>
+      <c r="C8" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>5</v>
+      <c r="E8" s="5">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1299,14 +1472,14 @@
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>69</v>
+      <c r="C9" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>5</v>
+      <c r="E9" s="5">
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1323,14 +1496,14 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>99</v>
+      <c r="C10" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>5</v>
+      <c r="E10" s="5">
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1347,14 +1520,14 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>70</v>
+      <c r="C11" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>5</v>
+      <c r="E11" s="5">
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1371,14 +1544,14 @@
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
-        <v>98</v>
+      <c r="C12" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>5</v>
+      <c r="E12" s="5">
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1395,14 +1568,14 @@
       <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
-        <v>97</v>
+      <c r="C13" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>5</v>
+      <c r="E13" s="5">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1419,14 +1592,14 @@
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
-        <v>71</v>
+      <c r="C14" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>5</v>
+      <c r="E14" s="5">
+        <v>2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1443,14 +1616,14 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>72</v>
+      <c r="C15" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>5</v>
+      <c r="E15" s="5">
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1467,14 +1640,14 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>73</v>
+      <c r="C16" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>5</v>
+      <c r="E16" s="5">
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1491,14 +1664,14 @@
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
+      <c r="C17" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>5</v>
+      <c r="E17" s="5">
+        <v>10</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1515,14 +1688,14 @@
       <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>75</v>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>5</v>
+      <c r="E18" s="5">
+        <v>10</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1539,14 +1712,14 @@
       <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>76</v>
+      <c r="C19" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>5</v>
+      <c r="E19" s="5">
+        <v>10</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1563,14 +1736,14 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>77</v>
+      <c r="C20" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>5</v>
+      <c r="E20" s="5">
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1587,14 +1760,14 @@
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
-        <v>78</v>
+      <c r="C21" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>5</v>
+      <c r="E21" s="5">
+        <v>10</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1611,14 +1784,14 @@
       <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="s">
-        <v>79</v>
+      <c r="C22" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>20</v>
+      <c r="E22" s="5">
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1635,19 +1808,16 @@
       <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>96</v>
+      <c r="C23" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="K23">
         <v>0</v>
       </c>
       <c r="N23" t="str">
@@ -1662,19 +1832,16 @@
       <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>80</v>
+      <c r="C24" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="K24">
         <v>0</v>
       </c>
       <c r="N24" t="str">
@@ -1689,19 +1856,16 @@
       <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
-        <v>81</v>
+      <c r="C25" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="K25">
         <v>0</v>
       </c>
       <c r="N25" t="str">
@@ -1716,19 +1880,16 @@
       <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
-        <v>82</v>
+      <c r="C26" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="K26">
         <v>0</v>
       </c>
       <c r="N26" t="str">
@@ -1743,19 +1904,16 @@
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
-        <v>83</v>
+      <c r="C27" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="K27">
         <v>0</v>
       </c>
       <c r="N27" t="str">
@@ -1770,13 +1928,13 @@
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
-        <v>84</v>
+      <c r="C28" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="F28">
@@ -1797,13 +1955,13 @@
       <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
-        <v>94</v>
+      <c r="C29" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="F29">
@@ -1824,13 +1982,13 @@
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
-        <v>95</v>
+      <c r="C30" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>1</v>
       </c>
       <c r="F30">
@@ -1849,15 +2007,15 @@
         <v>10028</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" t="s">
-        <v>141</v>
+        <v>108</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>1</v>
       </c>
       <c r="F31">
@@ -1881,13 +2039,13 @@
       <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
-        <v>85</v>
+      <c r="C32" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>1</v>
       </c>
       <c r="F32">
@@ -1906,15 +2064,15 @@
         <v>10030</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>1</v>
       </c>
       <c r="F33">
@@ -1932,14 +2090,14 @@
       <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C34" t="s">
-        <v>87</v>
+      <c r="C34" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34">
-        <v>5</v>
+      <c r="E34" s="5">
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1948,15 +2106,12 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
         <v>0</v>
       </c>
       <c r="N34" t="str">
@@ -1971,31 +2126,28 @@
       <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="C35" t="s">
-        <v>88</v>
+      <c r="C35" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>2</v>
+      <c r="E35" s="5">
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
         <v>0</v>
       </c>
       <c r="N35" t="str">
@@ -2010,17 +2162,17 @@
       <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
-        <v>89</v>
+      <c r="C36" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>2</v>
+      <c r="E36" s="5">
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2029,12 +2181,9 @@
         <v>10</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
         <v>0</v>
       </c>
       <c r="N36" t="str">
@@ -2049,32 +2198,29 @@
       <c r="B37" t="s">
         <v>62</v>
       </c>
-      <c r="C37" t="s">
-        <v>93</v>
+      <c r="C37" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>3</v>
       </c>
       <c r="F37">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>-5</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>-10</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="0"/>
@@ -2088,29 +2234,29 @@
       <c r="B38" t="s">
         <v>63</v>
       </c>
-      <c r="C38" t="s">
-        <v>90</v>
+      <c r="C38" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <v>5</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>20</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="0"/>
@@ -2124,29 +2270,29 @@
       <c r="B39" t="s">
         <v>64</v>
       </c>
-      <c r="C39" t="s">
-        <v>91</v>
+      <c r="C39" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>5</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
@@ -2160,26 +2306,26 @@
       <c r="B40" t="s">
         <v>65</v>
       </c>
-      <c r="C40" t="s">
-        <v>92</v>
+      <c r="C40" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <v>5</v>
       </c>
       <c r="F40">
-        <v>6.5</v>
+        <v>48</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J40">
         <v>5</v>
@@ -2194,31 +2340,31 @@
         <v>10038</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" t="s">
-        <v>122</v>
+        <v>73</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41">
-        <v>2</v>
+      <c r="E41" s="5">
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="0"/>
@@ -2230,31 +2376,31 @@
         <v>10039</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" t="s">
-        <v>122</v>
+        <v>72</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="5">
         <v>1</v>
       </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>-5</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
         <v>5</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="0"/>
@@ -2266,16 +2412,16 @@
         <v>10040</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>122</v>
+        <v>74</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43">
-        <v>3</v>
+      <c r="E43" s="5">
+        <v>2</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2284,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2302,16 +2448,16 @@
         <v>10041</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" t="s">
-        <v>122</v>
+        <v>75</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44">
-        <v>3</v>
+      <c r="E44" s="5">
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2320,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2338,16 +2484,16 @@
         <v>10042</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>122</v>
+        <v>85</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45">
-        <v>3</v>
+      <c r="E45" s="5">
+        <v>2</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2356,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2374,16 +2520,16 @@
         <v>10043</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46">
-        <v>5</v>
+      <c r="E46" s="5">
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2392,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2410,30 +2556,18 @@
         <v>10044</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>122</v>
+        <v>76</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
-        <v>5</v>
+      <c r="E47" s="5">
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
         <v>0</v>
       </c>
       <c r="N47" t="str">
@@ -2446,31 +2580,31 @@
         <v>10045</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" t="s">
-        <v>122</v>
+        <v>77</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="5">
         <v>5</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="0"/>
@@ -2482,31 +2616,31 @@
         <v>10046</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" t="s">
-        <v>122</v>
+        <v>78</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="5">
         <v>5</v>
       </c>
       <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
         <v>5</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="0"/>
@@ -2518,28 +2652,28 @@
         <v>10047</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" t="s">
-        <v>122</v>
+        <v>79</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="5">
         <v>5</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2554,31 +2688,31 @@
         <v>10048</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s">
-        <v>122</v>
+        <v>80</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="5">
         <v>5</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="0"/>
@@ -2590,31 +2724,31 @@
         <v>10049</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" t="s">
-        <v>122</v>
+        <v>81</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>5</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="0"/>
@@ -2626,31 +2760,31 @@
         <v>10050</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" t="s">
-        <v>122</v>
+        <v>90</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="5">
         <v>5</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="0"/>
@@ -2662,31 +2796,31 @@
         <v>10051</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
+        <v>82</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="5">
         <v>5</v>
       </c>
       <c r="F54">
+        <v>48</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
         <v>5</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="0"/>
@@ -2698,31 +2832,31 @@
         <v>10052</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
+        <v>83</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="5">
         <v>5</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="0"/>
@@ -2734,28 +2868,28 @@
         <v>10053</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" t="s">
-        <v>122</v>
+        <v>86</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="5">
         <v>5</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2770,28 +2904,28 @@
         <v>10054</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" t="s">
-        <v>122</v>
+        <v>88</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="5">
         <v>2</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2806,31 +2940,31 @@
         <v>10055</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" t="s">
-        <v>122</v>
+        <v>89</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="5">
         <v>5</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="0"/>
@@ -2842,19 +2976,19 @@
         <v>10056</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" t="s">
-        <v>122</v>
+        <v>84</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59">
-        <v>3</v>
+      <c r="E59" s="5">
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2863,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2878,16 +3012,19 @@
         <v>11001</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" t="s">
-        <v>122</v>
+        <v>91</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
         <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="0"/>
@@ -2899,16 +3036,19 @@
         <v>11002</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
+        <v>92</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
         <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="0"/>
@@ -2920,16 +3060,19 @@
         <v>11003</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s">
-        <v>122</v>
+        <v>93</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
         <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="0"/>
@@ -2941,16 +3084,19 @@
         <v>11004</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" t="s">
-        <v>122</v>
+        <v>94</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
         <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="0"/>
@@ -2962,16 +3108,19 @@
         <v>11005</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
+        <v>95</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
         <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="0"/>
@@ -2983,16 +3132,19 @@
         <v>11006</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
         <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="0"/>
@@ -3004,16 +3156,19 @@
         <v>11007</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
         <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="0"/>
@@ -3025,16 +3180,19 @@
         <v>11008</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" t="s">
-        <v>122</v>
+        <v>100</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
         <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" si="0"/>
@@ -3046,16 +3204,19 @@
         <v>11009</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
         <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="0"/>
@@ -3067,16 +3228,19 @@
         <v>11010</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69">
         <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -3094,10 +3258,10 @@
         <v>11011</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3105,13 +3269,16 @@
       <c r="E70">
         <v>1</v>
       </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
       <c r="N70" t="str">
         <f t="shared" si="0"/>
         <v>Icon\Item\11011</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
